--- a/biology/Histoire de la zoologie et de la botanique/Gérard_Dubost/Gérard_Dubost.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gérard_Dubost/Gérard_Dubost.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Dubost</t>
+          <t>Gérard_Dubost</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gérard Dubost est un zoologiste français spécialiste de l'écologie mammalienne et de l'histoire naturelle de la forêt tropicale humide de basse altitude de Guyane et du Gabon[1]. L'épithète spécifique de Neacomys dubosti, une nouvelle espèce de rongeur découverte en 2001, lui a été dédié. Il a été directeur de la ménagerie du Jardin des plantes de 1996 à 2001.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gérard Dubost est un zoologiste français spécialiste de l'écologie mammalienne et de l'histoire naturelle de la forêt tropicale humide de basse altitude de Guyane et du Gabon. L'épithète spécifique de Neacomys dubosti, une nouvelle espèce de rongeur découverte en 2001, lui a été dédié. Il a été directeur de la ménagerie du Jardin des plantes de 1996 à 2001.
 </t>
         </is>
       </c>
